--- a/PyScripts/output/very_hot_day.xlsx
+++ b/PyScripts/output/very_hot_day.xlsx
@@ -472,34 +472,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51875.90339835615</v>
+        <v>51224.92278954912</v>
       </c>
       <c r="C2" t="n">
-        <v>39039.16106522124</v>
+        <v>38189.24434833383</v>
       </c>
       <c r="D2" t="n">
-        <v>39376.93077528612</v>
+        <v>38500.88510780747</v>
       </c>
       <c r="E2" t="n">
-        <v>39751.82736909715</v>
+        <v>38848.86979059646</v>
       </c>
       <c r="F2" t="n">
-        <v>40161.74218037925</v>
+        <v>39231.11521241133</v>
       </c>
       <c r="G2" t="n">
-        <v>40396.75885616824</v>
+        <v>39437.95970439006</v>
       </c>
       <c r="H2" t="n">
-        <v>40337.75361748727</v>
+        <v>39350.60395885645</v>
       </c>
       <c r="I2" t="n">
-        <v>40283.01931962969</v>
+        <v>39273.20737155753</v>
       </c>
       <c r="J2" t="n">
-        <v>39240.0712291272</v>
+        <v>38182.04170628155</v>
       </c>
       <c r="K2" t="n">
-        <v>34939.64121385504</v>
+        <v>34117.02144015579</v>
       </c>
     </row>
     <row r="3">
@@ -509,34 +509,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32862.06193798718</v>
+        <v>32588.34891130717</v>
       </c>
       <c r="C3" t="n">
-        <v>30127.89342044214</v>
+        <v>29658.69387168821</v>
       </c>
       <c r="D3" t="n">
-        <v>30082.97157571908</v>
+        <v>29612.35373812074</v>
       </c>
       <c r="E3" t="n">
-        <v>30053.72927938549</v>
+        <v>29581.81396784067</v>
       </c>
       <c r="F3" t="n">
-        <v>30039.28058304033</v>
+        <v>29566.18189814671</v>
       </c>
       <c r="G3" t="n">
-        <v>29901.49532179244</v>
+        <v>29427.82512632223</v>
       </c>
       <c r="H3" t="n">
-        <v>29562.37433054789</v>
+        <v>29089.0136957723</v>
       </c>
       <c r="I3" t="n">
-        <v>29225.72731433688</v>
+        <v>28750.96000868479</v>
       </c>
       <c r="J3" t="n">
-        <v>27877.8733266148</v>
+        <v>27408.54329122788</v>
       </c>
       <c r="K3" t="n">
-        <v>27858.64823596851</v>
+        <v>27396.59249867332</v>
       </c>
     </row>
     <row r="4">
@@ -546,34 +546,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30798.28299137652</v>
+        <v>30319.8542017977</v>
       </c>
       <c r="C4" t="n">
-        <v>30803.24254547846</v>
+        <v>30319.8542017977</v>
       </c>
       <c r="D4" t="n">
-        <v>30804.60538362059</v>
+        <v>30319.8542017977</v>
       </c>
       <c r="E4" t="n">
-        <v>30805.90058874816</v>
+        <v>30319.8542017977</v>
       </c>
       <c r="F4" t="n">
-        <v>30807.13024455399</v>
+        <v>30319.85420179771</v>
       </c>
       <c r="G4" t="n">
-        <v>30808.29644049085</v>
+        <v>30319.8542017977</v>
       </c>
       <c r="H4" t="n">
-        <v>30809.40127894494</v>
+        <v>30319.8542017977</v>
       </c>
       <c r="I4" t="n">
-        <v>30810.46263094984</v>
+        <v>30319.8542017977</v>
       </c>
       <c r="J4" t="n">
-        <v>30812.50486111805</v>
+        <v>30319.85420179771</v>
       </c>
       <c r="K4" t="n">
-        <v>30805.70729897338</v>
+        <v>30319.8542017977</v>
       </c>
     </row>
     <row r="5">
@@ -583,34 +583,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2063.778946610659</v>
+        <v>2268.494709509469</v>
       </c>
       <c r="C5" t="n">
-        <v>-675.3491250363222</v>
+        <v>-661.1603301094874</v>
       </c>
       <c r="D5" t="n">
-        <v>-721.6338079015077</v>
+        <v>-707.500463676959</v>
       </c>
       <c r="E5" t="n">
-        <v>-752.1713093626749</v>
+        <v>-738.0402339570319</v>
       </c>
       <c r="F5" t="n">
-        <v>-767.849661513661</v>
+        <v>-753.6723036509939</v>
       </c>
       <c r="G5" t="n">
-        <v>-906.8011186984077</v>
+        <v>-892.0290754754751</v>
       </c>
       <c r="H5" t="n">
-        <v>-1247.026948397044</v>
+        <v>-1230.840506025397</v>
       </c>
       <c r="I5" t="n">
-        <v>-1584.735316612958</v>
+        <v>-1568.894193112912</v>
       </c>
       <c r="J5" t="n">
-        <v>-2934.631534503242</v>
+        <v>-2911.310910569828</v>
       </c>
       <c r="K5" t="n">
-        <v>-2947.059063004868</v>
+        <v>-2923.261703124383</v>
       </c>
     </row>
     <row r="6">
@@ -620,34 +620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3518.327873729942</v>
+        <v>3563.085871226998</v>
       </c>
       <c r="C6" t="n">
-        <v>1485.806678714054</v>
+        <v>1478.162492723923</v>
       </c>
       <c r="D6" t="n">
-        <v>1477.285149039577</v>
+        <v>1469.807264017861</v>
       </c>
       <c r="E6" t="n">
-        <v>1471.697020948411</v>
+        <v>1464.477462354849</v>
       </c>
       <c r="F6" t="n">
-        <v>1468.884646004199</v>
+        <v>1462.011103641665</v>
       </c>
       <c r="G6" t="n">
-        <v>1443.126257729228</v>
+        <v>1435.774743240307</v>
       </c>
       <c r="H6" t="n">
-        <v>1379.934234041249</v>
+        <v>1370.767903202741</v>
       </c>
       <c r="I6" t="n">
-        <v>1309.817265435772</v>
+        <v>1305.919821042462</v>
       </c>
       <c r="J6" t="n">
-        <v>1053.870572425404</v>
+        <v>1049.705223749625</v>
       </c>
       <c r="K6" t="n">
-        <v>1050.267074549649</v>
+        <v>1044.672180033171</v>
       </c>
     </row>
     <row r="7">
@@ -657,34 +657,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1576.247086485909</v>
+        <v>1567.5</v>
       </c>
       <c r="C7" t="n">
-        <v>1576.32549713431</v>
+        <v>1567.5</v>
       </c>
       <c r="D7" t="n">
-        <v>1576.336296578368</v>
+        <v>1567.5</v>
       </c>
       <c r="E7" t="n">
-        <v>1576.346531144053</v>
+        <v>1567.5</v>
       </c>
       <c r="F7" t="n">
-        <v>1576.356218819159</v>
+        <v>1567.5</v>
       </c>
       <c r="G7" t="n">
-        <v>1576.365650642039</v>
+        <v>1567.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1576.375000174464</v>
+        <v>1567.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1576.383396661658</v>
+        <v>1567.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1576.401286045776</v>
+        <v>1567.5</v>
       </c>
       <c r="K7" t="n">
-        <v>1576.353488740001</v>
+        <v>1567.5</v>
       </c>
     </row>
     <row r="8">
@@ -694,34 +694,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1942.080787244033</v>
+        <v>1995.585871226998</v>
       </c>
       <c r="C8" t="n">
-        <v>-90.51881842025591</v>
+        <v>-89.33750727607685</v>
       </c>
       <c r="D8" t="n">
-        <v>-99.05114753879138</v>
+        <v>-97.69273598213931</v>
       </c>
       <c r="E8" t="n">
-        <v>-104.6495101956423</v>
+        <v>-103.0225376451508</v>
       </c>
       <c r="F8" t="n">
-        <v>-107.4715728149602</v>
+        <v>-105.4888963583353</v>
       </c>
       <c r="G8" t="n">
-        <v>-133.2393929128111</v>
+        <v>-131.7252567596934</v>
       </c>
       <c r="H8" t="n">
-        <v>-196.4407661332154</v>
+        <v>-196.7320967972587</v>
       </c>
       <c r="I8" t="n">
-        <v>-266.5661312258862</v>
+        <v>-261.5801789575385</v>
       </c>
       <c r="J8" t="n">
-        <v>-522.5307136203724</v>
+        <v>-517.7947762503745</v>
       </c>
       <c r="K8" t="n">
-        <v>-526.0864141903523</v>
+        <v>-522.8278199668293</v>
       </c>
     </row>
     <row r="9">
@@ -731,34 +731,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-13.9470275878906</v>
+        <v>-14.44492528929624</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.082647705078102</v>
+        <v>-5.345196517424313</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.385015869140602</v>
+        <v>-5.621602658710117</v>
       </c>
       <c r="E9" t="n">
-        <v>-6.720495605468727</v>
+        <v>-5.929997835266136</v>
       </c>
       <c r="F9" t="n">
-        <v>-7.087286376953102</v>
+        <v>-6.2685707973219</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.313879394531227</v>
+        <v>-6.470996588254934</v>
       </c>
       <c r="H9" t="n">
-        <v>-7.302862548828102</v>
+        <v>-6.443016488250635</v>
       </c>
       <c r="I9" t="n">
-        <v>-7.336737060546852</v>
+        <v>-6.425515022381035</v>
       </c>
       <c r="J9" t="n">
-        <v>-6.615270996093727</v>
+        <v>-5.660878966398116</v>
       </c>
       <c r="K9" t="n">
-        <v>-8.134771728515602</v>
+        <v>-7.268896180657009</v>
       </c>
     </row>
     <row r="10">
@@ -768,34 +768,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.00000000041967</v>
+        <v>27.00000000000148</v>
       </c>
       <c r="C10" t="n">
-        <v>23.96247133208186</v>
+        <v>24.0000000001105</v>
       </c>
       <c r="D10" t="n">
-        <v>23.96918345948552</v>
+        <v>24.00000000015228</v>
       </c>
       <c r="E10" t="n">
-        <v>23.97938119716918</v>
+        <v>24.00000000000023</v>
       </c>
       <c r="F10" t="n">
-        <v>23.99290785107928</v>
+        <v>24.00000000000028</v>
       </c>
       <c r="G10" t="n">
-        <v>23.96979474230852</v>
+        <v>24.00000000000023</v>
       </c>
       <c r="H10" t="n">
-        <v>23.88738606395685</v>
+        <v>24.00000000000028</v>
       </c>
       <c r="I10" t="n">
-        <v>24.09363587778103</v>
+        <v>23.99999999999983</v>
       </c>
       <c r="J10" t="n">
-        <v>24.02980657153671</v>
+        <v>23.99999999999989</v>
       </c>
       <c r="K10" t="n">
-        <v>23.96353485862954</v>
+        <v>24.00000000000006</v>
       </c>
     </row>
     <row r="11">
@@ -805,34 +805,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.07273934283256</v>
+        <v>27.00000000000023</v>
       </c>
       <c r="C11" t="n">
-        <v>23.99999999999994</v>
+        <v>23.99999999991047</v>
       </c>
       <c r="D11" t="n">
-        <v>23.99999999999994</v>
+        <v>24.00000000004053</v>
       </c>
       <c r="E11" t="n">
-        <v>23.99999999999994</v>
+        <v>23.99999999999955</v>
       </c>
       <c r="F11" t="n">
-        <v>24</v>
+        <v>23.99999999999966</v>
       </c>
       <c r="G11" t="n">
-        <v>24.00000000000165</v>
+        <v>23.99999999999955</v>
       </c>
       <c r="H11" t="n">
-        <v>23.99999999999989</v>
+        <v>23.99999999999977</v>
       </c>
       <c r="I11" t="n">
-        <v>23.99999999999909</v>
+        <v>23.99999999999972</v>
       </c>
       <c r="J11" t="n">
-        <v>23.99999999999926</v>
+        <v>23.9999999999996</v>
       </c>
       <c r="K11" t="n">
-        <v>24.00000000000318</v>
+        <v>23.99999999999983</v>
       </c>
     </row>
     <row r="12">
@@ -842,34 +842,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.45908569686441</v>
+        <v>27.40954690526263</v>
       </c>
       <c r="C12" t="n">
-        <v>23.89975053837026</v>
+        <v>23.90134660225669</v>
       </c>
       <c r="D12" t="n">
-        <v>23.89306002909905</v>
+        <v>23.89463631607782</v>
       </c>
       <c r="E12" t="n">
-        <v>23.88855642832681</v>
+        <v>23.890129766646</v>
       </c>
       <c r="F12" t="n">
-        <v>23.88611190383551</v>
+        <v>23.88769799692608</v>
       </c>
       <c r="G12" t="n">
-        <v>23.86675648435596</v>
+        <v>23.86834746819875</v>
       </c>
       <c r="H12" t="n">
-        <v>23.81974583139282</v>
+        <v>23.8213197251514</v>
       </c>
       <c r="I12" t="n">
-        <v>23.77279534596465</v>
+        <v>23.77436065724095</v>
       </c>
       <c r="J12" t="n">
-        <v>23.58504252005577</v>
+        <v>23.58702107145376</v>
       </c>
       <c r="K12" t="n">
-        <v>23.50941516336013</v>
+        <v>23.51176955474847</v>
       </c>
     </row>
     <row r="13">
@@ -879,34 +879,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.05656087294398</v>
+        <v>64.73373456039576</v>
       </c>
       <c r="C13" t="n">
-        <v>23.76684983077251</v>
+        <v>23.81178359963877</v>
       </c>
       <c r="D13" t="n">
-        <v>23.76011768302834</v>
+        <v>23.79879966047332</v>
       </c>
       <c r="E13" t="n">
-        <v>23.76106498420341</v>
+        <v>23.79000575389091</v>
       </c>
       <c r="F13" t="n">
-        <v>23.76929726737859</v>
+        <v>23.78516658770837</v>
       </c>
       <c r="G13" t="n">
-        <v>23.70858669320393</v>
+        <v>23.74803481984196</v>
       </c>
       <c r="H13" t="n">
-        <v>23.53566772367412</v>
+        <v>23.65810807120869</v>
       </c>
       <c r="I13" t="n">
-        <v>23.64552313872696</v>
+        <v>23.56837399215436</v>
       </c>
       <c r="J13" t="n">
-        <v>23.21696723799073</v>
+        <v>23.21207212829296</v>
       </c>
       <c r="K13" t="n">
-        <v>23.03192277067342</v>
+        <v>23.09520904774234</v>
       </c>
     </row>
     <row r="14">
@@ -916,34 +916,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12.01317615690107</v>
+        <v>11.49791125824396</v>
       </c>
       <c r="C14" t="n">
-        <v>12.52070732935567</v>
+        <v>12.71477928094936</v>
       </c>
       <c r="D14" t="n">
-        <v>12.55756008968621</v>
+        <v>12.75252650165947</v>
       </c>
       <c r="E14" t="n">
-        <v>12.5855243716158</v>
+        <v>12.78128556097852</v>
       </c>
       <c r="F14" t="n">
-        <v>12.60508841622681</v>
+        <v>12.80155079350959</v>
       </c>
       <c r="G14" t="n">
-        <v>12.68864880334212</v>
+        <v>12.88573224694005</v>
       </c>
       <c r="H14" t="n">
-        <v>12.87707460900316</v>
+        <v>13.07470754680787</v>
       </c>
       <c r="I14" t="n">
-        <v>13.06373097357618</v>
+        <v>13.26266501702719</v>
       </c>
       <c r="J14" t="n">
-        <v>13.7894978034804</v>
+        <v>13.98812710948005</v>
       </c>
       <c r="K14" t="n">
-        <v>11.64522812933814</v>
+        <v>11.87684300822968</v>
       </c>
     </row>
     <row r="15">
@@ -953,34 +953,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.449181150876923</v>
+        <v>8.357029288952003</v>
       </c>
       <c r="C15" t="n">
-        <v>8.730471269546557</v>
+        <v>8.640761084095896</v>
       </c>
       <c r="D15" t="n">
-        <v>8.466051870845019</v>
+        <v>8.383701314009388</v>
       </c>
       <c r="E15" t="n">
-        <v>8.213127883720823</v>
+        <v>8.1398780520459</v>
       </c>
       <c r="F15" t="n">
-        <v>7.971501592771409</v>
+        <v>7.908838408220376</v>
       </c>
       <c r="G15" t="n">
-        <v>7.759527425576575</v>
+        <v>7.685328065711904</v>
       </c>
       <c r="H15" t="n">
-        <v>7.585793576021343</v>
+        <v>7.466658123854272</v>
       </c>
       <c r="I15" t="n">
-        <v>7.257874010932714</v>
+        <v>7.259646139186395</v>
       </c>
       <c r="J15" t="n">
-        <v>6.867517168887237</v>
+        <v>6.839079571685586</v>
       </c>
       <c r="K15" t="n">
-        <v>8.056149108460442</v>
+        <v>7.977318440346827</v>
       </c>
     </row>
     <row r="16">
@@ -990,34 +990,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.18008234388611</v>
+        <v>14.97487198177346</v>
       </c>
       <c r="C16" t="n">
-        <v>16.81924715347579</v>
+        <v>16.79380782085635</v>
       </c>
       <c r="D16" t="n">
-        <v>16.31943872837257</v>
+        <v>16.29466524045645</v>
       </c>
       <c r="E16" t="n">
-        <v>15.84443409283625</v>
+        <v>15.82037839609323</v>
       </c>
       <c r="F16" t="n">
-        <v>15.39346907158338</v>
+        <v>15.37017368690997</v>
       </c>
       <c r="G16" t="n">
-        <v>14.96577737691475</v>
+        <v>14.94248625481686</v>
       </c>
       <c r="H16" t="n">
-        <v>14.56058797792517</v>
+        <v>14.53616317406524</v>
       </c>
       <c r="I16" t="n">
-        <v>14.17134683647709</v>
+        <v>14.15161087279915</v>
       </c>
       <c r="J16" t="n">
-        <v>13.42237759903351</v>
+        <v>13.40255288604633</v>
       </c>
       <c r="K16" t="n">
-        <v>15.91532135004552</v>
+        <v>15.88147333460036</v>
       </c>
     </row>
     <row r="17">
@@ -1027,34 +1027,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14.8140081454177</v>
+        <v>14.59344646204899</v>
       </c>
       <c r="C17" t="n">
-        <v>16.88779126809148</v>
+        <v>16.86074341973539</v>
       </c>
       <c r="D17" t="n">
-        <v>16.39146044232976</v>
+        <v>16.36513969844709</v>
       </c>
       <c r="E17" t="n">
-        <v>15.91761310036024</v>
+        <v>15.89205591957813</v>
       </c>
       <c r="F17" t="n">
-        <v>15.46580540076659</v>
+        <v>15.44104091269891</v>
       </c>
       <c r="G17" t="n">
-        <v>15.05260467258053</v>
+        <v>15.02785359187643</v>
       </c>
       <c r="H17" t="n">
-        <v>14.68554615112368</v>
+        <v>14.65963686988643</v>
       </c>
       <c r="I17" t="n">
-        <v>14.33243645031027</v>
+        <v>14.31124138873404</v>
       </c>
       <c r="J17" t="n">
-        <v>13.72737866762474</v>
+        <v>13.70558341417487</v>
       </c>
       <c r="K17" t="n">
-        <v>16.35828631420893</v>
+        <v>16.32129263736534</v>
       </c>
     </row>
     <row r="18">
@@ -1064,34 +1064,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.255597693170998</v>
+        <v>1.204707965785857</v>
       </c>
       <c r="C18" t="n">
-        <v>8.831611898025091</v>
+        <v>8.73687556047992</v>
       </c>
       <c r="D18" t="n">
-        <v>8.570987173199288</v>
+        <v>8.483511093831838</v>
       </c>
       <c r="E18" t="n">
-        <v>8.319482852497179</v>
+        <v>8.241076084648691</v>
       </c>
       <c r="F18" t="n">
-        <v>8.077223780743918</v>
+        <v>8.009429184265565</v>
       </c>
       <c r="G18" t="n">
-        <v>7.880208152235426</v>
+        <v>7.800421781703999</v>
       </c>
       <c r="H18" t="n">
-        <v>7.745923028995162</v>
+        <v>7.619556273947953</v>
       </c>
       <c r="I18" t="n">
-        <v>7.453904792758055</v>
+        <v>7.448403105692431</v>
       </c>
       <c r="J18" t="n">
-        <v>7.209935618178625</v>
+        <v>7.169295146960468</v>
       </c>
       <c r="K18" t="n">
-        <v>8.519454741547481</v>
+        <v>8.42221735578228</v>
       </c>
     </row>
     <row r="19">
@@ -1101,34 +1101,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.000000000001156</v>
+        <v>1.999999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>2.12000000000001</v>
+        <v>2.120000000000079</v>
       </c>
       <c r="D19" t="n">
-        <v>2.120000000000017</v>
+        <v>2.119999999989726</v>
       </c>
       <c r="E19" t="n">
-        <v>2.120000000000025</v>
+        <v>2.120000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>2.120000000000007</v>
+        <v>2.120000000000006</v>
       </c>
       <c r="G19" t="n">
-        <v>2.119999999999975</v>
+        <v>2.120000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>2.119999999999998</v>
+        <v>2.120000000000005</v>
       </c>
       <c r="I19" t="n">
-        <v>2.120000000000342</v>
+        <v>2.12</v>
       </c>
       <c r="J19" t="n">
-        <v>2.120000000000545</v>
+        <v>2.119999999999997</v>
       </c>
       <c r="K19" t="n">
-        <v>1.760000000001097</v>
+        <v>1.759999999999995</v>
       </c>
     </row>
     <row r="20">
@@ -1138,34 +1138,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2234750797601228</v>
+        <v>0.2189371235952639</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2385116966907509</v>
+        <v>0.2456321206343081</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2383303148065424</v>
+        <v>0.2453961658420465</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2381586915972715</v>
+        <v>0.2451605531561169</v>
       </c>
       <c r="F20" t="n">
-        <v>0.237996428143378</v>
+        <v>0.244925300299179</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2378430869796969</v>
+        <v>0.2448184431296837</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2376983209507088</v>
+        <v>0.2449123553738896</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2385593225733261</v>
+        <v>0.2450187454504356</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2392939839418255</v>
+        <v>0.2458447992883727</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2017962960555824</v>
+        <v>0.2075456848201041</v>
       </c>
     </row>
     <row r="21">
@@ -1175,34 +1175,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.806524920241033</v>
+        <v>1.826299701316607</v>
       </c>
       <c r="C21" t="n">
-        <v>1.897488303309259</v>
+        <v>1.890980352212075</v>
       </c>
       <c r="D21" t="n">
-        <v>1.897669685193475</v>
+        <v>1.89118427345909</v>
       </c>
       <c r="E21" t="n">
-        <v>1.897841308402754</v>
+        <v>1.891377036967999</v>
       </c>
       <c r="F21" t="n">
-        <v>1.898003571856629</v>
+        <v>1.89155911242005</v>
       </c>
       <c r="G21" t="n">
-        <v>1.898156913020278</v>
+        <v>1.891732907481844</v>
       </c>
       <c r="H21" t="n">
-        <v>1.898301679049289</v>
+        <v>1.891899769155168</v>
       </c>
       <c r="I21" t="n">
-        <v>1.898440677427015</v>
+        <v>1.892057169231886</v>
       </c>
       <c r="J21" t="n">
-        <v>1.898706016058719</v>
+        <v>1.892369049659524</v>
       </c>
       <c r="K21" t="n">
-        <v>1.576203703945514</v>
+        <v>1.570905491700901</v>
       </c>
     </row>
     <row r="22">
@@ -1212,34 +1212,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.809711174222612</v>
+        <v>1.829491977474827</v>
       </c>
       <c r="C22" t="n">
-        <v>1.900707555654517</v>
+        <v>1.894200065949262</v>
       </c>
       <c r="D22" t="n">
-        <v>1.900898002604226</v>
+        <v>1.894413040192885</v>
       </c>
       <c r="E22" t="n">
-        <v>1.901078241010837</v>
+        <v>1.894614405876346</v>
       </c>
       <c r="F22" t="n">
-        <v>1.901248683653539</v>
+        <v>1.894804646726843</v>
       </c>
       <c r="G22" t="n">
-        <v>1.901409781895491</v>
+        <v>1.894986198790139</v>
       </c>
       <c r="H22" t="n">
-        <v>1.901561896877392</v>
+        <v>1.895160429977695</v>
       </c>
       <c r="I22" t="n">
-        <v>1.901707954952726</v>
+        <v>1.895324804710253</v>
       </c>
       <c r="J22" t="n">
-        <v>1.901986877699674</v>
+        <v>1.895650270862825</v>
       </c>
       <c r="K22" t="n">
-        <v>1.579439350865723</v>
+        <v>1.57414175252532</v>
       </c>
     </row>
     <row r="23">
@@ -1249,34 +1249,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2235336154699326</v>
+        <v>0.2189956903457642</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2385707646608353</v>
+        <v>0.2456912100315094</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2383894473314285</v>
+        <v>0.2454553246498108</v>
       </c>
       <c r="E23" t="n">
-        <v>0.238217905163765</v>
+        <v>0.2452197819948196</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2380557060241699</v>
+        <v>0.2449845820665359</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2379024177789688</v>
+        <v>0.2448778003454208</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2377577126026154</v>
+        <v>0.2449717670679092</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2386187762022018</v>
+        <v>0.2450782209634781</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2393535524606705</v>
+        <v>0.2459043860435486</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2018555551767349</v>
+        <v>0.2076049596071243</v>
       </c>
     </row>
     <row r="24">
@@ -1323,34 +1323,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.033244848251343</v>
+        <v>1.048487663269043</v>
       </c>
       <c r="C25" t="n">
-        <v>1.079278349876404</v>
+        <v>1.079891324043274</v>
       </c>
       <c r="D25" t="n">
-        <v>1.07928740978241</v>
+        <v>1.079868316650391</v>
       </c>
       <c r="E25" t="n">
-        <v>1.079296112060547</v>
+        <v>1.079834222793579</v>
       </c>
       <c r="F25" t="n">
-        <v>1.079304337501526</v>
+        <v>1.079789280891418</v>
       </c>
       <c r="G25" t="n">
-        <v>1.079312205314636</v>
+        <v>1.079864025115967</v>
       </c>
       <c r="H25" t="n">
-        <v>1.079319596290588</v>
+        <v>1.080132246017456</v>
       </c>
       <c r="I25" t="n">
-        <v>1.080326676368713</v>
+        <v>1.080402970314026</v>
       </c>
       <c r="J25" t="n">
-        <v>1.081340432167053</v>
+        <v>1.081554651260376</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9012948870658875</v>
+        <v>0.9017466902732849</v>
       </c>
     </row>
     <row r="26">
@@ -1360,34 +1360,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1257933830333224</v>
+        <v>0.122924982882812</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1172664391673382</v>
+        <v>0.1211115956440778</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1171596493010716</v>
+        <v>0.120990709230105</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1170586237182512</v>
+        <v>0.1208764612044251</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1169631245352298</v>
+        <v>0.1207685692083345</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1168728915180717</v>
+        <v>0.120665603275894</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1167877178835664</v>
+        <v>0.1205667628717435</v>
       </c>
       <c r="I26" t="n">
-        <v>0.116705949892313</v>
+        <v>0.1204735430170173</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1165498934907161</v>
+        <v>0.1202888783144221</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1166069433763593</v>
+        <v>0.120372937326963</v>
       </c>
     </row>
     <row r="27">
@@ -1400,31 +1400,31 @@
         <v>-0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01600000075995922</v>
+        <v>0.01661247201263905</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01600000075995922</v>
+        <v>0.01658044010400772</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01600000075995922</v>
+        <v>0.01653758995234966</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01600000075995922</v>
+        <v>0.01648441329598427</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01600000075995922</v>
+        <v>0.01655135117471218</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01600000075995922</v>
+        <v>0.01681212522089481</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01700000092387199</v>
+        <v>0.01707591488957405</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01799999922513962</v>
+        <v>0.01821384951472282</v>
       </c>
       <c r="K27" t="n">
-        <v>0.01799999922513962</v>
+        <v>0.01845117658376694</v>
       </c>
     </row>
     <row r="28">
@@ -1434,7 +1434,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02999999932944775</v>
+        <v>0.04523682594299316</v>
       </c>
       <c r="C28" t="n">
         <v>-0</v>
@@ -1471,34 +1471,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>104.932953125</v>
+        <v>104.596046875</v>
       </c>
       <c r="C29" t="n">
-        <v>100.091328125</v>
+        <v>99.8350546875</v>
       </c>
       <c r="D29" t="n">
-        <v>97.04027343750001</v>
+        <v>96.77612499999999</v>
       </c>
       <c r="E29" t="n">
-        <v>94.1618203125</v>
+        <v>93.889734375</v>
       </c>
       <c r="F29" t="n">
-        <v>91.4484296875</v>
+        <v>91.1683671875</v>
       </c>
       <c r="G29" t="n">
-        <v>88.89317968749999</v>
+        <v>88.60550781249999</v>
       </c>
       <c r="H29" t="n">
-        <v>86.48921875000001</v>
+        <v>86.19458593749999</v>
       </c>
       <c r="I29" t="n">
-        <v>84.2290703125</v>
+        <v>83.92759375</v>
       </c>
       <c r="J29" t="n">
-        <v>79.8898515625</v>
+        <v>79.576328125</v>
       </c>
       <c r="K29" t="n">
-        <v>78.7836875</v>
+        <v>78.551703125</v>
       </c>
     </row>
     <row r="30">
@@ -1508,34 +1508,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.14403125</v>
+        <v>100.1420546875</v>
       </c>
       <c r="C30" t="n">
-        <v>94.871578125</v>
+        <v>94.8722265625</v>
       </c>
       <c r="D30" t="n">
-        <v>91.7253828125</v>
+        <v>91.72603125000001</v>
       </c>
       <c r="E30" t="n">
-        <v>88.7512734375</v>
+        <v>88.75192187499999</v>
       </c>
       <c r="F30" t="n">
-        <v>85.94193749999999</v>
+        <v>85.9425859375</v>
       </c>
       <c r="G30" t="n">
-        <v>83.2903125</v>
+        <v>83.290953125</v>
       </c>
       <c r="H30" t="n">
-        <v>80.78952343749999</v>
+        <v>80.7901640625</v>
       </c>
       <c r="I30" t="n">
-        <v>78.4329140625</v>
+        <v>78.43355468750001</v>
       </c>
       <c r="J30" t="n">
-        <v>73.8898046875</v>
+        <v>73.8904375</v>
       </c>
       <c r="K30" t="n">
-        <v>74.28205468749999</v>
+        <v>74.2825859375</v>
       </c>
     </row>
     <row r="31">
@@ -1545,34 +1545,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>104.9329567243102</v>
+        <v>104.5960450546548</v>
       </c>
       <c r="C31" t="n">
-        <v>100.0913287745497</v>
+        <v>99.8350514343208</v>
       </c>
       <c r="D31" t="n">
-        <v>97.04027716697348</v>
+        <v>96.77612414165822</v>
       </c>
       <c r="E31" t="n">
-        <v>94.16181902720305</v>
+        <v>93.88973094870269</v>
       </c>
       <c r="F31" t="n">
-        <v>91.44842803207486</v>
+        <v>91.16836449069925</v>
       </c>
       <c r="G31" t="n">
-        <v>88.89317803728048</v>
+        <v>88.60550793106179</v>
       </c>
       <c r="H31" t="n">
-        <v>86.48921634933863</v>
+        <v>86.19458670322818</v>
       </c>
       <c r="I31" t="n">
-        <v>84.22906756556519</v>
+        <v>83.92759649366528</v>
       </c>
       <c r="J31" t="n">
-        <v>79.88985319536843</v>
+        <v>79.57632967244329</v>
       </c>
       <c r="K31" t="n">
-        <v>78.78368670831067</v>
+        <v>78.55169994585421</v>
       </c>
     </row>
   </sheetData>
